--- a/StructureDefinition-ext-R5-AllergyIntolerance.reaction.xlsx
+++ b/StructureDefinition-ext-R5-AllergyIntolerance.reaction.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="234">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes defining the type of the substance (including pharmaceutical products).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -514,8 +505,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:manifestation.extension:concept.id</t>
@@ -533,7 +523,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-findings-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-findings-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:manifestation.extension:reference</t>
@@ -548,8 +538,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:manifestation.extension:reference.id</t>
@@ -564,7 +553,7 @@
     <t>Extension.extension:manifestation.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
 </t>
   </si>
   <si>
@@ -688,15 +677,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-reaction-event-severity-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:exposureRoute</t>
   </si>
   <si>
@@ -729,12 +709,6 @@
   </si>
   <si>
     <t>Extension.extension:exposureRoute.value[x]</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of exposure to a substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-route-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:note</t>
@@ -1122,8 +1096,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="99.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.12890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2043,43 +2017,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2087,13 +2061,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2118,16 +2092,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2196,7 +2170,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2299,7 +2273,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2402,13 +2376,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2433,10 +2407,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2507,10 +2481,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2610,10 +2584,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2715,10 +2689,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2758,7 +2732,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2820,10 +2794,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2849,13 +2823,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2863,7 +2837,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2905,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2917,7 +2891,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>121</v>
@@ -2925,13 +2899,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2956,14 +2930,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3032,10 +3006,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3135,10 +3109,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3240,10 +3214,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3283,7 +3257,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3345,10 +3319,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3374,10 +3348,10 @@
         <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3404,11 +3378,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3426,7 +3400,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3438,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>121</v>
@@ -3446,13 +3420,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3477,14 +3451,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3553,10 +3527,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3656,10 +3630,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3761,10 +3735,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3804,7 +3778,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3866,10 +3840,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3892,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3949,7 +3923,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3961,7 +3935,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>121</v>
@@ -3969,7 +3943,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4012,7 +3986,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4074,7 +4048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4100,13 +4074,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4157,7 +4131,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4169,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4177,13 +4151,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4208,16 +4182,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4286,7 +4260,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4389,7 +4363,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4494,7 +4468,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4537,7 +4511,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4599,7 +4573,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4628,13 +4602,13 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4684,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4696,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -4704,13 +4678,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4735,14 +4709,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4811,7 +4785,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4914,7 +4888,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5019,7 +4993,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5062,7 +5036,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5124,7 +5098,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5150,13 +5124,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5207,7 +5181,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5219,7 +5193,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5227,13 +5201,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5258,16 +5232,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5336,7 +5310,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5439,7 +5413,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5544,7 +5518,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5587,7 +5561,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5649,7 +5623,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5675,16 +5649,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5710,13 +5684,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -5734,7 +5708,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5746,7 +5720,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -5754,13 +5728,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5785,16 +5759,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5863,7 +5837,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -5966,7 +5940,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6071,7 +6045,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6114,7 +6088,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6176,7 +6150,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6205,13 +6179,13 @@
         <v>124</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6237,32 +6211,32 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
@@ -6273,7 +6247,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>121</v>
@@ -6281,13 +6255,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6312,16 +6286,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6390,7 +6364,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6493,7 +6467,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6598,7 +6572,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6641,7 +6615,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6703,7 +6677,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6729,16 +6703,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6788,7 +6762,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6800,7 +6774,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -6913,10 +6887,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6939,13 +6913,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6996,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7008,7 +6982,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>121</v>
